--- a/data/trans_dic/P43E_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P43E_R-Estudios-trans_dic.xlsx
@@ -590,7 +590,7 @@
         <v>0.9499228382343856</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.9380408107667871</v>
+        <v>0.938040810766787</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8445503398742945</v>
+        <v>0.8455283719164027</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9246662964330256</v>
+        <v>0.9259408845136797</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.9120479722918826</v>
+        <v>0.9139533160911227</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9009202783980104</v>
+        <v>0.8952355804771089</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9685713570599641</v>
+        <v>0.9683502730572844</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9562956138554725</v>
+        <v>0.9576772922525811</v>
       </c>
     </row>
     <row r="7">
@@ -645,7 +645,7 @@
         <v>0.8598004265919553</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.787475180077437</v>
+        <v>0.7874751800774371</v>
       </c>
     </row>
     <row r="8">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7405720800633193</v>
+        <v>0.7402008928742546</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8390685899092416</v>
+        <v>0.8398679879621826</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7637661893004</v>
+        <v>0.7662394714768018</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7914532737695844</v>
+        <v>0.7913988552150558</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.879762467394631</v>
+        <v>0.8796150416203569</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.811811325399148</v>
+        <v>0.8131496028122939</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.5108788026468573</v>
+        <v>0.512258657733328</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5948419578592545</v>
+        <v>0.5879346739598146</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4834594878549299</v>
+        <v>0.4902375706963858</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.6242834072331778</v>
+        <v>0.6239039798403393</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6940604816192661</v>
+        <v>0.6855381475208547</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5750271943406824</v>
+        <v>0.5768075564528798</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7508131802645183</v>
+        <v>0.7508295094571725</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8203945418855514</v>
+        <v>0.8209677405489623</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7351661802474136</v>
+        <v>0.7356154769172795</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7893141170565567</v>
+        <v>0.7879368852565822</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8550933248803795</v>
+        <v>0.8527398244419984</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7733975941398739</v>
+        <v>0.7728481256070645</v>
       </c>
     </row>
     <row r="16">
@@ -923,13 +923,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>581746</v>
+        <v>582419</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>439588</v>
+        <v>440194</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>277025</v>
+        <v>277603</v>
       </c>
     </row>
     <row r="7">
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>620575</v>
+        <v>616659</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>460461</v>
+        <v>460356</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>290464</v>
+        <v>290884</v>
       </c>
     </row>
     <row r="8">
@@ -995,13 +995,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>898478</v>
+        <v>898027</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1053813</v>
+        <v>1054817</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>698790</v>
+        <v>701052</v>
       </c>
     </row>
     <row r="11">
@@ -1012,13 +1012,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>960208</v>
+        <v>960142</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1104922</v>
+        <v>1104737</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>742747</v>
+        <v>743972</v>
       </c>
     </row>
     <row r="12">
@@ -1067,13 +1067,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>175747</v>
+        <v>176222</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>245648</v>
+        <v>242795</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>187004</v>
+        <v>189626</v>
       </c>
     </row>
     <row r="15">
@@ -1084,13 +1084,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>214760</v>
+        <v>214629</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>286621</v>
+        <v>283102</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>222423</v>
+        <v>223111</v>
       </c>
     </row>
     <row r="16">
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1686367</v>
+        <v>1686404</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1759170</v>
+        <v>1760399</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1180287</v>
+        <v>1181008</v>
       </c>
     </row>
     <row r="19">
@@ -1156,13 +1156,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1772842</v>
+        <v>1769749</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1833574</v>
+        <v>1828527</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1241666</v>
+        <v>1240784</v>
       </c>
     </row>
     <row r="20">
